--- a/medicine/Sexualité et sexologie/La_Vénus_littéraire/La_Vénus_littéraire.xlsx
+++ b/medicine/Sexualité et sexologie/La_Vénus_littéraire/La_Vénus_littéraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_V%C3%A9nus_litt%C3%A9raire</t>
+          <t>La_Vénus_littéraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Vénus littéraire est une revue consacrée à l’érotisme dans l’art, littéraire ou graphique et à l’exigence littéraire et artistique dans ce qui touche au domaine érotique. Inspirée par le manifeste Erolithique, elle propose érotisme et idéal.
-La Vénus littéraire a été créé en 2005 par Tang Loaec [1]qui en anime le contenu éditorial et Cécile Oberlin pour la création web [2]. Elle réunit un groupe d'auteurs, poètes, artistes et critiques partageant le goût du beau et les convictions du Manifeste Erolithique [3].
-La Vénus littéraire, en sus de son œuvre critique regroupée sous le nom de Revue Critique de Littérature érotique [4], cherche également a :
+La Vénus littéraire a été créé en 2005 par Tang Loaec qui en anime le contenu éditorial et Cécile Oberlin pour la création web . Elle réunit un groupe d'auteurs, poètes, artistes et critiques partageant le goût du beau et les convictions du Manifeste Erolithique .
+La Vénus littéraire, en sus de son œuvre critique regroupée sous le nom de Revue Critique de Littérature érotique , cherche également a :
 porter des projets d’écriture partagée ;
 faciliter les collaborations entre auteurs et artistes graphistes, que l’image illustre ou précède l’écrit ;
 offrir la genèse de romans, offerts en ligne sans préjudice d’une publication ultérieure ;
 rendre publics, ouverts à la découverte par des éditeurs tiers ou des lecteurs, des manuscrits en cours de rédaction ou d’achèvement ;
 pouvoir défendre des œuvres qui correspondent à la vision du Manifeste Erolithique, en particulier grâce à la Revue Critique de Littérotique ;
-La Vénus littéraire est aussi le sponsor du prix Vénus de nouvelles érotique [5] qui a couronné en 2007 La Séance de Serge Rivron. 
+La Vénus littéraire est aussi le sponsor du prix Vénus de nouvelles érotique  qui a couronné en 2007 La Séance de Serge Rivron. 
 </t>
         </is>
       </c>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_V%C3%A9nus_litt%C3%A9raire</t>
+          <t>La_Vénus_littéraire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://bibliobs.nouvelobs.com/blog/enfer-de-bibliobs
 http://lavenuslitteraire.com/Index.htm
